--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/MauImPortToHoi_ChiHoi_NganhNhe.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/MauImPortToHoi_ChiHoi_NganhNhe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D62D7D8-8B41-4984-B98A-22140B7D5277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D31652-5BE0-49DD-89CE-641F57FC18F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C10594-97B7-490C-A58A-C86816B68C1F}"/>
   </bookViews>
@@ -83,12 +83,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Tên đơn vị: HND TP Thủ Đức</t>
   </si>
   <si>
     <t>DANH SÁCH HỘI VIÊN THAM GIA CHI, TỔ HỘI NGHỀ NGHIỆP</t>
@@ -187,30 +184,14 @@
     </r>
   </si>
   <si>
-    <t>Nguyễn Kim Sơn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">079058027256
-</t>
-  </si>
-  <si>
-    <t>Chăn nuôi bò thịt</t>
-  </si>
-  <si>
-    <t>16/7 ấp 4</t>
-  </si>
-  <si>
-    <t>xã Xuân Thới Sơn</t>
-  </si>
-  <si>
-    <t>Hóc Môn</t>
+    <t>Tên đơn vị:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,18 +250,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -327,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,27 +322,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4492A19E-36C7-4FA3-A76F-AEAF296971DF}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD394"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -715,28 +663,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="H2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -762,67 +710,35 @@
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="16">
-        <v>8461</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
